--- a/data/xlsx/MLP_grid_search_results.xlsx
+++ b/data/xlsx/MLP_grid_search_results.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sgd</t>
+          <t>nesterov</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3640737154362829</v>
+        <v>0.3639968644810255</v>
       </c>
     </row>
     <row r="3">
@@ -469,24 +469,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nesterov</t>
+          <t>sgd</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3642581577289006</v>
+        <v>0.3640276048631285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adamw</t>
+          <t>sgd</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3656261047324818</v>
+        <v>0.448348472971519</v>
       </c>
     </row>
     <row r="5">
@@ -495,24 +495,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sgd</t>
+          <t>nesterov</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4524676841733143</v>
+        <v>0.4528673091406526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nesterov</t>
+          <t>adamw</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4524369437912113</v>
+        <v>0.3654262922488127</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4568789290050875</v>
+        <v>0.4578779914234334</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4496241988287915</v>
+        <v>0.4527750879943438</v>
       </c>
     </row>
     <row r="9">
@@ -547,24 +547,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nesterov</t>
+          <t>sgd</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4567252270945728</v>
+        <v>0.4577089193218672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sgd</t>
+          <t>nesterov</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4514839919460199</v>
+        <v>0.4577857702771245</v>
       </c>
     </row>
     <row r="11">
@@ -573,16 +573,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nesterov</t>
+          <t>adamw</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4564178232735433</v>
+        <v>0.4543428474815942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -590,46 +590,46 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4572939241634774</v>
+        <v>0.4535743379290205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adamw</t>
+          <t>nesterov</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4581085442892055</v>
+        <v>0.4568635588140361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adamw</t>
+          <t>nesterov</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4585389096386468</v>
+        <v>0.4557107944851754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nesterov</t>
+          <t>adamw</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4536050783111234</v>
+        <v>0.4551882079894253</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4564024530824918</v>
+        <v>0.4569096693871905</v>
       </c>
     </row>
   </sheetData>
